--- a/src/data/productos.xlsx
+++ b/src/data/productos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MARE CREANDO 2025\CATALOGO MARE\GLIDE 06-06-25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MARE CREANDO 2025\WEB MARE\Repositorio_Base_Pagina-web-Mare\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F429AC-0421-494A-AAB3-8D508883F5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB25264-68E3-48FF-969C-9FAB044D71BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{227819F0-7ECA-4DCA-A611-9F2186BA8A76}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="154">
   <si>
     <t>Código</t>
   </si>
@@ -219,33 +219,6 @@
     <t>C10</t>
   </si>
   <si>
-    <t>PASH5016</t>
-  </si>
-  <si>
-    <t>Pashminas</t>
-  </si>
-  <si>
-    <t>Textil</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1EOeJevIgYV-n4QVAM0qRbxU3Y9RBntdM/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1AJTbHU9aAh0ORQ7hQG98vUq7H7BExSbw/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1nWi8cxAxh4uLrhY5QpGNn28VhI74uIBX/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Aavg2TY8dI2OFjnRDlIvOcteLNUWcMrw/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1rvGJYdymS_rA7sdD9sW-EyX62GRSCXim/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1EV7xQoOiGwQ27vf_lSHbDvL6haWmKudD/view?usp=sharing</t>
-  </si>
-  <si>
     <t>SI</t>
   </si>
   <si>
@@ -258,45 +231,12 @@
     <t>Marroquineria</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1txcpxiV5C60z-FZ9enWiDgTf3PEeN-Rn/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/13n-bnq8tU5OHY59VeCA5o9JbxC9-11Lw/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1fAbn2tZashCe9iw8SPwUFarR63eK52q_/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1akKfLgdg6zRYVPmPKpBE4yykVp6VW7zr/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/12N8axkEHFfyjq-B8fATtaecEq6YnFzPd/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1mzhqhBcsFu2kPfgMTuT_2BqyqzetvYw7/view?usp=drive_link</t>
-  </si>
-  <si>
     <t>LB270</t>
   </si>
   <si>
     <t>Bandolera</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/15Oy5tAPR9OYhl1pVtMCdLfJhFXJgdXoA/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1NvU5Zu1JYBnte0oY5bRRN2X9bDlvr793/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1wZpvpLhctpVodnGu9PPGzJZ6QjpURGXj/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1duHDtNGrJA4If4xRg_GA-ls5Ti9KanU4/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1NvU5Zu1JYBnte0oY5bRRN2X9bDlvr793/view?usp=drive_link</t>
-  </si>
-  <si>
     <t>Set caravanas</t>
   </si>
   <si>
@@ -306,45 +246,18 @@
     <t>Caravanas acero</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1c6jBeLfZQpW1kW9XwfGrwH3vktkrgPB_/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Imagen Variantes</t>
   </si>
   <si>
     <t>Medidas</t>
   </si>
   <si>
-    <t>70 x 190cm</t>
-  </si>
-  <si>
     <t>32 x 13 x 34cm</t>
   </si>
   <si>
     <t>22x13x22cm</t>
   </si>
   <si>
-    <t>BL5632</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1R_bjzaXukNkXU55zHhXw6hOB8shzjgsZ/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/14D2O4krRgoeoIrcHhOBTf9HDy2f1IWHM/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1iXY30LPzxqFb_KeUw3DCQfc9C9QRv1yE/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1qnFSKlWIcaaer-V71kUdxjGYpY2iYHwO/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1LP53jC0486BYEKnM8ZqIRSb1iVcPUhxy/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1CEvaeW_u616JrlsaDHR2Me-91p6N-Tp-/view?usp=sharing</t>
-  </si>
-  <si>
     <t>visible</t>
   </si>
   <si>
@@ -360,9 +273,6 @@
     <t>Accesorios para pelo</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/13Y0aACY8PlJKFaOq8eYJ9zrk6kEYfFzP/view?usp=sharing</t>
-  </si>
-  <si>
     <t>HC100336</t>
   </si>
   <si>
@@ -372,15 +282,6 @@
     <t>Set coleros x2</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1T6MpASVen8H4FbpKgPmHqk3qIgZ-mXuR/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1LlVnAxosHYzjJXhjSDGjyifrWQNFxQ6R/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1sbJz99UVCCDPN1GqL2q8-DKuOTigWTMz/view?usp=sharing</t>
-  </si>
-  <si>
     <t>B125</t>
   </si>
   <si>
@@ -390,143 +291,218 @@
     <t>26 x 26cm</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1aFebNQ8iBp9524Ldrj-p5thaa8ajh6Iu/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1E6JyrA36YF4yArEvjJMEpVziUFB5oZZ-/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1_R83TU4TM8RSHcQ1lXlkZXKGLCiyPNRL/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1jTLzlTCclywi-4lKnZgaYBWZwwa3i-Aa/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/13PKT4j0_tw9w8CAHynDUZ3HtHoLAEc4Z/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1dw4XqoBUQfdYteybiUfzafwmo_KDADr3/view?usp=sharing</t>
-  </si>
-  <si>
     <t>CBB009</t>
   </si>
   <si>
     <t>10 X 4 X  13CM</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1TPvbDluNMzelsGD1stlh7eqbPD4BuwtX/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1X4-subxjFLiS-Z80Od7YoGSqnbqa0atb/view?usp=sharing</t>
-  </si>
-  <si>
     <t>B1102</t>
   </si>
   <si>
     <t>20 x 10 x 4cm</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1Gg80lX6cOK6WXyHnZUqWFWeJoiybVVDr/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1K-sTIcFhZ3AFQV3TCFbGb7vNHMlCEHVA/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1vDWNGd5wDSBTQAwyhhtGSEONJYFRnMcs/view?usp=sharing</t>
-  </si>
-  <si>
     <t>B11015</t>
   </si>
   <si>
     <t>16 X 20 X 12CM</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1PM38oBsYeo9tv5Y7TJVG1LMMbY53J9TT/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1BCSeok6beej_zUy6n9rzrxpj_wXSDZlm/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1xm8g5_6nKUtRjyiFpKp5yq69rCAITcaa/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1e1K1Mw_U3YUzg8yUvlyFChUm0yBNfANh/view?usp=sharing</t>
-  </si>
-  <si>
     <t>FN5005</t>
   </si>
   <si>
     <t>17 X 11 X 5CM</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1Y5moiTkb3ycOveW4DdAohRW2rOqMNqyA/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/13zZMD1JmqXFlllBshDaZs10GVgJL9sTB/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1N-YyMcP-4BrTxU6FxlL-c_q5ipDj0Rqu/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1dDWBFF-KMDYpRudQM6zDluyc5sk5LZ6f/view?usp=sharing</t>
-  </si>
-  <si>
     <t>LB5005</t>
   </si>
   <si>
     <t>20 X 14 X 7CM</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1DaMq0s-dgt9xc44JeRXaCQkQMFwCNHg7/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1r140iwOBHWmXH_YeICgWvDHj3WKSAHdd/view?usp=sharing</t>
-  </si>
-  <si>
     <t>B1003</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1BOoLQwsgLcr5NB4NVg7Y3wXZpI_sxc2G/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1WUggjhqZiyJkWljqa8tCaWcmHAy7WNUP/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1E5XqdxWB4onu3jLgOJyWSdJrPwiS_TMr/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1yud5v9xkuumq-d928WsKowrBLPx6yaC7/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1gKER_R6raeF3IO5bIM1t5MRp6ujLXK_k/view?usp=sharing</t>
-  </si>
-  <si>
     <t>LB251</t>
   </si>
   <si>
     <t>17 X 15 X 11CM</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1ifTcERBEe7M9RcrgJnrOKyAyguPum2zU/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1keadiNY47o-ATBwEd7qHP1__p3dRDuVt/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1iZyMnmHJLYz3Dv6H3V07eNrJ46FpH0U8/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/13RjVY2HyoF8RtHF4MrN-y4baUt_HO3xh/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1vvdqwFMmbzUalu2-uq7jZsnkbgHbos6e/view?usp=sharing</t>
+    <t>LB233 1</t>
+  </si>
+  <si>
+    <t>LB233 2</t>
+  </si>
+  <si>
+    <t>LB233 3</t>
+  </si>
+  <si>
+    <t>LB233 4</t>
+  </si>
+  <si>
+    <t>LB233 5</t>
+  </si>
+  <si>
+    <t>LB270 1</t>
+  </si>
+  <si>
+    <t>LB270 2</t>
+  </si>
+  <si>
+    <t>LB270 3</t>
+  </si>
+  <si>
+    <t>LB270 VARIANTES</t>
+  </si>
+  <si>
+    <t>24002 1</t>
+  </si>
+  <si>
+    <t>B125 1</t>
+  </si>
+  <si>
+    <t>2002 1</t>
+  </si>
+  <si>
+    <t>CBB009 1</t>
+  </si>
+  <si>
+    <t>B1102 1</t>
+  </si>
+  <si>
+    <t>B11015 1</t>
+  </si>
+  <si>
+    <t>FN5005 1</t>
+  </si>
+  <si>
+    <t>LB5005 1</t>
+  </si>
+  <si>
+    <t>B1003 1</t>
+  </si>
+  <si>
+    <t>LB251 1</t>
+  </si>
+  <si>
+    <t>LB5632</t>
+  </si>
+  <si>
+    <t>LB5632 1</t>
+  </si>
+  <si>
+    <t>LB5632 2</t>
+  </si>
+  <si>
+    <t>LB5632 3</t>
+  </si>
+  <si>
+    <t>LB5632 4</t>
+  </si>
+  <si>
+    <t>LB5632 5</t>
+  </si>
+  <si>
+    <t>LB5632 VARIANTES</t>
+  </si>
+  <si>
+    <t>100336 1</t>
+  </si>
+  <si>
+    <t>100391 1</t>
+  </si>
+  <si>
+    <t>B125 2</t>
+  </si>
+  <si>
+    <t>LB251 2</t>
+  </si>
+  <si>
+    <t>2002 2</t>
+  </si>
+  <si>
+    <t>2002 3</t>
+  </si>
+  <si>
+    <t>B11015 3</t>
+  </si>
+  <si>
+    <t>FN5005 3</t>
+  </si>
+  <si>
+    <t>B1003 3</t>
+  </si>
+  <si>
+    <t>LB251 3</t>
+  </si>
+  <si>
+    <t>2002 4</t>
+  </si>
+  <si>
+    <t>B1102 2</t>
+  </si>
+  <si>
+    <t>2002 5</t>
+  </si>
+  <si>
+    <t>2002 VARIANTES</t>
+  </si>
+  <si>
+    <t>CBB009 2</t>
+  </si>
+  <si>
+    <t>B11015 2</t>
+  </si>
+  <si>
+    <t>FN5005 2</t>
+  </si>
+  <si>
+    <t>B1003 2</t>
+  </si>
+  <si>
+    <t>B1102 VARIANTES</t>
+  </si>
+  <si>
+    <t>B11015 VARIANTES</t>
+  </si>
+  <si>
+    <t>FN5005 VARIANTES</t>
+  </si>
+  <si>
+    <t>LB5005 VARIANTES</t>
+  </si>
+  <si>
+    <t>B1003 4</t>
+  </si>
+  <si>
+    <t>B1003 VARIANTES</t>
+  </si>
+  <si>
+    <t>LB251 4</t>
+  </si>
+  <si>
+    <t>LB251 VARIANTES</t>
+  </si>
+  <si>
+    <t>LB1091</t>
+  </si>
+  <si>
+    <t>LB1091 1</t>
+  </si>
+  <si>
+    <t>LB1091 2</t>
+  </si>
+  <si>
+    <t>LB1091 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,6 +524,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -589,12 +571,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -914,7 +897,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q17" sqref="Q17"/>
+      <selection pane="topRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,7 +924,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -977,16 +960,16 @@
         <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="S1" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="T1" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>16</v>
@@ -1126,805 +1109,736 @@
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="F2">
-        <v>245</v>
+        <v>790</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="S2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="T2" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="U2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>70</v>
+        <v>61</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
         <v>73</v>
       </c>
-      <c r="E3" t="s">
-        <v>94</v>
-      </c>
       <c r="F3">
-        <v>790</v>
+        <v>650</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="Q3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="T3" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="S3" t="s">
-        <v>70</v>
-      </c>
-      <c r="T3" t="s">
-        <v>103</v>
-      </c>
       <c r="U3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>70</v>
+        <v>61</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>80</v>
+      <c r="A4">
+        <v>24002</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="F4">
-        <v>650</v>
+        <v>79</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>86</v>
+        <v>107</v>
+      </c>
+      <c r="S4" t="s">
+        <v>61</v>
       </c>
       <c r="T4" t="s">
-        <v>103</v>
-      </c>
-      <c r="U4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>24002</v>
+      <c r="A5" t="s">
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="F5">
-        <v>79</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="R5" t="s">
-        <v>70</v>
+        <v>650</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>123</v>
       </c>
       <c r="S5" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="T5" t="s">
-        <v>103</v>
+        <v>74</v>
+      </c>
+      <c r="U5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F6">
-        <v>650</v>
-      </c>
-      <c r="G6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I6" t="s">
-        <v>99</v>
-      </c>
-      <c r="J6" t="s">
-        <v>100</v>
-      </c>
-      <c r="K6" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>102</v>
-      </c>
-      <c r="S6" t="s">
-        <v>70</v>
+        <v>45</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="T6" t="s">
-        <v>103</v>
-      </c>
-      <c r="U6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="F7">
         <v>45</v>
       </c>
-      <c r="G7" t="s">
-        <v>108</v>
-      </c>
-      <c r="R7" t="s">
-        <v>70</v>
+      <c r="G7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="S7" t="s">
+        <v>61</v>
       </c>
       <c r="T7" t="s">
-        <v>103</v>
+        <v>74</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>61</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>61</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="F8">
-        <v>45</v>
-      </c>
-      <c r="G8" t="s">
-        <v>112</v>
-      </c>
-      <c r="S8" t="s">
-        <v>70</v>
+        <v>26</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" t="s">
+        <v>126</v>
       </c>
       <c r="T8" t="s">
-        <v>103</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>70</v>
-      </c>
-      <c r="BE8" t="s">
-        <v>70</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>70</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>70</v>
-      </c>
-      <c r="BJ8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>115</v>
+      <c r="A9">
+        <v>2002</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>84</v>
       </c>
       <c r="F9">
-        <v>26</v>
-      </c>
-      <c r="G9" t="s">
-        <v>113</v>
+        <v>425</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="H9" t="s">
-        <v>114</v>
-      </c>
-      <c r="R9" t="s">
-        <v>70</v>
+        <v>128</v>
+      </c>
+      <c r="I9" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>137</v>
+      </c>
+      <c r="S9" t="s">
+        <v>61</v>
       </c>
       <c r="T9" t="s">
-        <v>103</v>
+        <v>74</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2002</v>
+      <c r="A10" t="s">
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="F10">
-        <v>425</v>
-      </c>
-      <c r="G10" t="s">
-        <v>118</v>
+        <v>185</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="H10" t="s">
-        <v>119</v>
-      </c>
-      <c r="I10" t="s">
-        <v>120</v>
-      </c>
-      <c r="J10" t="s">
-        <v>121</v>
-      </c>
-      <c r="K10" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="S10" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="T10" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="V10" t="s">
+        <v>61</v>
       </c>
       <c r="AF10" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="AH10" t="s">
-        <v>70</v>
+        <v>61</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="F11">
-        <v>185</v>
-      </c>
-      <c r="G11" t="s">
-        <v>126</v>
+        <v>290</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="H11" t="s">
-        <v>127</v>
+        <v>135</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>142</v>
       </c>
       <c r="S11" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="T11" t="s">
-        <v>103</v>
-      </c>
-      <c r="V11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="U11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="F12">
-        <v>290</v>
-      </c>
-      <c r="G12" t="s">
+        <v>395</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="H12" t="s">
-        <v>131</v>
-      </c>
       <c r="Q12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="S12" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="T12" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="U12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>70</v>
+        <v>61</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>61</v>
       </c>
       <c r="AQ12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="F13">
-        <v>395</v>
-      </c>
-      <c r="G13" t="s">
-        <v>135</v>
-      </c>
-      <c r="H13" t="s">
-        <v>136</v>
-      </c>
-      <c r="I13" t="s">
-        <v>137</v>
+        <v>380</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="Q13" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="S13" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="T13" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="U13" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="AH13" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>70</v>
+        <v>61</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="F14">
-        <v>380</v>
-      </c>
-      <c r="G14" t="s">
-        <v>141</v>
-      </c>
-      <c r="H14" t="s">
-        <v>142</v>
-      </c>
-      <c r="I14" t="s">
-        <v>143</v>
+        <v>395</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="Q14" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S14" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="T14" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="U14" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>70</v>
+        <v>61</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="F15">
         <v>395</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q15" t="s">
         <v>147</v>
       </c>
-      <c r="Q15" t="s">
-        <v>148</v>
-      </c>
       <c r="S15" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="T15" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="U15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>70</v>
+        <v>61</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>61</v>
       </c>
       <c r="AG15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>70</v>
+        <v>61</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>97</v>
       </c>
       <c r="F16">
         <v>395</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>149</v>
+      </c>
+      <c r="S16" t="s">
+        <v>61</v>
+      </c>
+      <c r="T16" t="s">
+        <v>74</v>
+      </c>
+      <c r="U16" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>150</v>
       </c>
-      <c r="H16" t="s">
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17">
+        <v>695</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="I16" t="s">
+      <c r="H17" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="J16" t="s">
+      <c r="I17" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>154</v>
-      </c>
-      <c r="S16" t="s">
-        <v>70</v>
-      </c>
-      <c r="T16" t="s">
-        <v>103</v>
-      </c>
-      <c r="U16" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>70</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>155</v>
-      </c>
-      <c r="B17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E17" t="s">
-        <v>156</v>
-      </c>
-      <c r="F17">
-        <v>395</v>
-      </c>
-      <c r="G17" t="s">
-        <v>157</v>
-      </c>
-      <c r="H17" t="s">
-        <v>158</v>
-      </c>
-      <c r="I17" t="s">
-        <v>159</v>
-      </c>
-      <c r="J17" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>161</v>
-      </c>
-      <c r="S17" t="s">
-        <v>70</v>
-      </c>
-      <c r="T17" t="s">
-        <v>103</v>
-      </c>
-      <c r="U17" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{09FF7FE5-B1A0-48DA-BE2E-100FA5F0AEFC}"/>
-    <hyperlink ref="H2" r:id="rId2" xr:uid="{EB14BD9C-F292-498C-8E37-0CF127B48FFD}"/>
-    <hyperlink ref="I2" r:id="rId3" xr:uid="{F9C3C625-C0CC-48E5-8EDC-5637DF5F958A}"/>
-    <hyperlink ref="J2" r:id="rId4" xr:uid="{CCA374FC-7A29-4BEE-8DD0-5C6592475518}"/>
-    <hyperlink ref="K2" r:id="rId5" xr:uid="{7751A8CE-E7D0-45DD-BB79-7F6089BCF8FD}"/>
-    <hyperlink ref="L2" r:id="rId6" xr:uid="{8E6D7DAC-9672-49D0-A49A-20F0AB4F8F09}"/>
-    <hyperlink ref="Q2" r:id="rId7" xr:uid="{EAF1676B-F3F4-4B4A-9AC1-C966B698C30D}"/>
-    <hyperlink ref="G3" r:id="rId8" xr:uid="{A126031C-787C-4632-A0AA-29BF02CC6817}"/>
-    <hyperlink ref="H3" r:id="rId9" xr:uid="{9618A1D1-D973-419B-899E-557770DCF48F}"/>
-    <hyperlink ref="I3" r:id="rId10" xr:uid="{77688FDF-B830-4859-B0FE-254A94E6661D}"/>
-    <hyperlink ref="J3" r:id="rId11" xr:uid="{D82A7E3A-4D20-4C8B-8C5F-FFD2E19E27A1}"/>
-    <hyperlink ref="K3" r:id="rId12" xr:uid="{46742F67-5564-4F18-8151-7884B39BA63A}"/>
-    <hyperlink ref="Q3" r:id="rId13" xr:uid="{2475583F-A5B2-4E53-BBB5-AB732555BD3C}"/>
-    <hyperlink ref="G4" r:id="rId14" xr:uid="{47EA925D-3AED-45BD-9F4C-294669A3BDCE}"/>
-    <hyperlink ref="H4" r:id="rId15" xr:uid="{76AEF5A6-4346-457A-BD27-0395C36C47A4}"/>
-    <hyperlink ref="I4" r:id="rId16" xr:uid="{3DA32674-3758-46E2-98CB-3D766A52D8DD}"/>
-    <hyperlink ref="J4" r:id="rId17" xr:uid="{ECB9B30F-DAEF-4B97-9B19-C4CBD18105A6}"/>
-    <hyperlink ref="Q4" r:id="rId18" xr:uid="{897F4E40-634B-41C3-BCBE-3BC9C0C505FD}"/>
-    <hyperlink ref="G5" r:id="rId19" xr:uid="{9D8AB772-8ABA-4B4C-8124-9A9A09525CA7}"/>
-  </hyperlinks>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>